--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1030683.827379653</v>
+        <v>1030251.446278075</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217325.279007335</v>
+        <v>217325.2790073354</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.38622042143049</v>
+        <v>108.3119903120143</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -789,13 +789,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>54.70796984336143</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>102.9840607035025</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>243.4438153256982</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>227.7562407972266</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>337.6267423115449</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>257.2261897889153</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>56.76289130273555</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>120.5126200543902</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.7565979799008</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.63178133362961</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -1145,13 +1145,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>20.24036763426783</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1221,10 +1221,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1266,16 +1266,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>22.23537840313667</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>26.3733696620277</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>60.70050068014593</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.0889220286996</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>287.1002389863813</v>
@@ -1376,19 +1376,19 @@
         <v>278.0815430309093</v>
       </c>
       <c r="E11" t="n">
-        <v>299.8236806008148</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.995496688792</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.9287645862145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>29.66373315806771</v>
       </c>
       <c r="I11" t="n">
-        <v>80.0748447091526</v>
+        <v>80.07484470915257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>94.34250352181023</v>
+        <v>94.3425035218102</v>
       </c>
       <c r="T11" t="n">
-        <v>131.1011747121596</v>
+        <v>131.1011747121595</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>161.3223008290065</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>242.5952992688787</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.8953987468356</v>
       </c>
       <c r="X11" t="n">
-        <v>70.76428966406363</v>
+        <v>287.1956569795822</v>
       </c>
       <c r="Y11" t="n">
         <v>298.592254775781</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>130.9922385581937</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.90562774879713</v>
       </c>
       <c r="D13" t="n">
-        <v>60.52699214637555</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.474742002155</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.76473667437956</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.01238147762622</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>120.55848287621</v>
+        <v>120.5584828762099</v>
       </c>
       <c r="T13" t="n">
         <v>139.8329815583386</v>
@@ -1591,10 +1591,10 @@
         <v>192.2806553736355</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.9257573694386</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.82753301023281</v>
+        <v>116.7750001925337</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6545267831697</v>
+        <v>293.6545267831698</v>
       </c>
       <c r="C14" t="n">
-        <v>250.8861802767381</v>
+        <v>281.6658437408515</v>
       </c>
       <c r="D14" t="n">
-        <v>272.6471477853794</v>
+        <v>89.53978584650503</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3892853552849</v>
+        <v>294.389285355285</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5611014432621</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.4943693406846</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64044946362267</v>
+        <v>74.64044946362276</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.9081082762803</v>
+        <v>88.90810827628039</v>
       </c>
       <c r="T14" t="n">
         <v>125.6667794666297</v>
       </c>
       <c r="U14" t="n">
-        <v>155.8879055834766</v>
+        <v>155.8879055834767</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>237.1609040233489</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4610035013058</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>281.7612617340524</v>
       </c>
       <c r="Y14" t="n">
         <v>293.1578595302511</v>
@@ -1692,7 +1692,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>85.27123765786683</v>
       </c>
       <c r="C16" t="n">
-        <v>71.47123250326723</v>
+        <v>71.47123250326732</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.09259690084571</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>54.50727108481138</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.78197380615921</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>36.85644808057648</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.31243661367898</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.57798623209638</v>
       </c>
       <c r="S16" t="n">
-        <v>115.12408763068</v>
+        <v>115.1240876306801</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>134.3985863128088</v>
       </c>
       <c r="U16" t="n">
-        <v>187.8697597761218</v>
+        <v>187.8697597761219</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6793740574923</v>
+        <v>161.6793740574924</v>
       </c>
       <c r="W16" t="n">
-        <v>186.8462601281056</v>
+        <v>186.8462601281057</v>
       </c>
       <c r="X16" t="n">
-        <v>132.4913621239087</v>
+        <v>132.4913621239088</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.3662298799764</v>
+        <v>5.48395236158356</v>
       </c>
     </row>
     <row r="17">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>224.7087975524973</v>
       </c>
       <c r="F20" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404753</v>
       </c>
       <c r="G20" t="n">
         <v>245.8138815378969</v>
@@ -2141,7 +2141,7 @@
         <v>167.4804162205611</v>
       </c>
       <c r="W20" t="n">
-        <v>192.7805156985187</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X20" t="n">
         <v>212.0807739312646</v>
@@ -2175,10 +2175,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I21" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2691,7 +2691,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.7381877239541</v>
+        <v>266.738187723954</v>
       </c>
       <c r="C29" t="n">
-        <v>254.7495046816358</v>
+        <v>254.7495046816357</v>
       </c>
       <c r="D29" t="n">
-        <v>245.7308087261638</v>
+        <v>245.7308087261637</v>
       </c>
       <c r="E29" t="n">
-        <v>267.4729462960693</v>
+        <v>267.4729462960692</v>
       </c>
       <c r="F29" t="n">
-        <v>286.6447623840465</v>
+        <v>205.1288337010989</v>
       </c>
       <c r="G29" t="n">
-        <v>254.7862120029278</v>
+        <v>288.5780302814689</v>
       </c>
       <c r="H29" t="n">
-        <v>206.1281452597789</v>
+        <v>206.1281452597788</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.72411040440696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.99176921706471</v>
+        <v>61.99176921706459</v>
       </c>
       <c r="T29" t="n">
-        <v>98.75044040741408</v>
+        <v>98.75044040741395</v>
       </c>
       <c r="U29" t="n">
-        <v>128.971566524261</v>
+        <v>128.9715665242609</v>
       </c>
       <c r="V29" t="n">
-        <v>210.2445649641332</v>
+        <v>210.2445649641331</v>
       </c>
       <c r="W29" t="n">
-        <v>235.5446644420901</v>
+        <v>235.54466444209</v>
       </c>
       <c r="X29" t="n">
-        <v>254.8449226748367</v>
+        <v>254.8449226748366</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.2415204710355</v>
+        <v>266.2415204710354</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2880,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>118.781368784121</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -2934,7 +2934,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.35489859865116</v>
+        <v>58.35489859865103</v>
       </c>
       <c r="C31" t="n">
-        <v>44.55489344405164</v>
+        <v>44.55489344405152</v>
       </c>
       <c r="D31" t="n">
-        <v>28.17625784163003</v>
+        <v>28.1762578416299</v>
       </c>
       <c r="E31" t="n">
-        <v>27.12400769740948</v>
+        <v>27.12400769740935</v>
       </c>
       <c r="F31" t="n">
-        <v>27.59093202559579</v>
+        <v>27.59093202559566</v>
       </c>
       <c r="G31" t="n">
-        <v>43.86563474694363</v>
+        <v>43.8656347469435</v>
       </c>
       <c r="H31" t="n">
-        <v>34.41400236963405</v>
+        <v>34.41400236963392</v>
       </c>
       <c r="I31" t="n">
-        <v>19.3960975544634</v>
+        <v>19.39609755446327</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.66164717288071</v>
+        <v>24.66164717288058</v>
       </c>
       <c r="S31" t="n">
-        <v>88.20774857146445</v>
+        <v>88.20774857146432</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4822472535931</v>
+        <v>107.482247253593</v>
       </c>
       <c r="U31" t="n">
-        <v>160.9534207169062</v>
+        <v>160.9534207169061</v>
       </c>
       <c r="V31" t="n">
-        <v>134.7630349982767</v>
+        <v>134.7630349982766</v>
       </c>
       <c r="W31" t="n">
-        <v>159.92992106889</v>
+        <v>159.9299210688899</v>
       </c>
       <c r="X31" t="n">
-        <v>105.5750230646931</v>
+        <v>105.575023064693</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.44989082076081</v>
+        <v>96.44989082076069</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713362</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3360,10 +3360,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>84.37298759326565</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -4056,7 +4056,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6658975774199</v>
+        <v>1415.309220302921</v>
       </c>
       <c r="C2" t="n">
-        <v>61.73213891022726</v>
+        <v>1033.375461635728</v>
       </c>
       <c r="D2" t="n">
-        <v>61.73213891022726</v>
+        <v>1033.375461635728</v>
       </c>
       <c r="E2" t="n">
-        <v>61.73213891022726</v>
+        <v>638.5897417418353</v>
       </c>
       <c r="F2" t="n">
-        <v>51.62135226080165</v>
+        <v>628.4789550924097</v>
       </c>
       <c r="G2" t="n">
-        <v>39.55776975539369</v>
+        <v>212.3749685465976</v>
       </c>
       <c r="H2" t="n">
-        <v>39.55776975539369</v>
+        <v>212.3749685465976</v>
       </c>
       <c r="I2" t="n">
-        <v>39.55776975539369</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5563140281994</v>
+        <v>111.5563140281993</v>
       </c>
       <c r="K2" t="n">
         <v>351.6966860729821</v>
@@ -4337,19 +4337,19 @@
         <v>699.5820591579284</v>
       </c>
       <c r="M2" t="n">
-        <v>971.9633944665443</v>
+        <v>971.9633944665434</v>
       </c>
       <c r="N2" t="n">
-        <v>1350.29475315426</v>
+        <v>1350.294753154259</v>
       </c>
       <c r="O2" t="n">
-        <v>1655.299337627094</v>
+        <v>1655.299337627093</v>
       </c>
       <c r="P2" t="n">
-        <v>1883.456234083147</v>
+        <v>1883.456234083146</v>
       </c>
       <c r="Q2" t="n">
-        <v>1977.888487769684</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="R2" t="n">
         <v>1887.250201265537</v>
@@ -4361,19 +4361,19 @@
         <v>1887.250201265537</v>
       </c>
       <c r="U2" t="n">
-        <v>1632.364864979532</v>
+        <v>1887.250201265537</v>
       </c>
       <c r="V2" t="n">
-        <v>1295.385590875473</v>
+        <v>1887.250201265537</v>
       </c>
       <c r="W2" t="n">
-        <v>1295.385590875473</v>
+        <v>1524.715271123138</v>
       </c>
       <c r="X2" t="n">
-        <v>913.3554503969663</v>
+        <v>1524.715271123138</v>
       </c>
       <c r="Y2" t="n">
-        <v>519.8135949728043</v>
+        <v>1524.715271123138</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.8705302574377</v>
+        <v>655.4482322305967</v>
       </c>
       <c r="C3" t="n">
-        <v>757.1668574983925</v>
+        <v>493.7445594715513</v>
       </c>
       <c r="D3" t="n">
-        <v>618.3282204886045</v>
+        <v>354.9059224617634</v>
       </c>
       <c r="E3" t="n">
-        <v>471.3002105454758</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="F3" t="n">
-        <v>336.6064124953501</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="G3" t="n">
-        <v>207.8779125186347</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="H3" t="n">
         <v>107.9400550653327</v>
       </c>
       <c r="I3" t="n">
-        <v>39.55776975539369</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J3" t="n">
-        <v>99.81191628849983</v>
+        <v>99.81191628849982</v>
       </c>
       <c r="K3" t="n">
-        <v>329.3024688486885</v>
+        <v>151.2602336910178</v>
       </c>
       <c r="L3" t="n">
-        <v>695.1243140188042</v>
+        <v>151.2602336910178</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.157667529031</v>
+        <v>636.2935872012442</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.685068252028</v>
+        <v>1125.820987924241</v>
       </c>
       <c r="O3" t="n">
-        <v>1820.11685798409</v>
+        <v>1518.020938708392</v>
       </c>
       <c r="P3" t="n">
-        <v>1820.11685798409</v>
+        <v>1820.116857984089</v>
       </c>
       <c r="Q3" t="n">
-        <v>1977.888487769684</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="R3" t="n">
-        <v>1918.10421886463</v>
+        <v>1918.104218864629</v>
       </c>
       <c r="S3" t="n">
-        <v>1765.30473187737</v>
+        <v>1765.304731877369</v>
       </c>
       <c r="T3" t="n">
-        <v>1710.044156278015</v>
+        <v>1576.619628043354</v>
       </c>
       <c r="U3" t="n">
-        <v>1710.044156278015</v>
+        <v>1358.124835641665</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.044156278015</v>
+        <v>1254.100531900753</v>
       </c>
       <c r="W3" t="n">
-        <v>1468.728287511325</v>
+        <v>1012.784663134063</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.81129938912</v>
+        <v>814.8676750118575</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.289973038699</v>
+        <v>814.8676750118575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="C4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="D4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="E4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="F4" t="n">
-        <v>1445.829242523752</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="G4" t="n">
-        <v>1445.829242523752</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="H4" t="n">
-        <v>1445.829242523752</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="I4" t="n">
-        <v>1445.829242523752</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J4" t="n">
-        <v>1445.829242523752</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="K4" t="n">
-        <v>1479.433430268395</v>
+        <v>73.16195750003708</v>
       </c>
       <c r="L4" t="n">
-        <v>1580.040509668655</v>
+        <v>173.7690369002966</v>
       </c>
       <c r="M4" t="n">
-        <v>1698.034015796256</v>
+        <v>291.7625430278983</v>
       </c>
       <c r="N4" t="n">
-        <v>1816.456357545857</v>
+        <v>410.1848847774987</v>
       </c>
       <c r="O4" t="n">
-        <v>1914.920004041546</v>
+        <v>508.6485312731883</v>
       </c>
       <c r="P4" t="n">
-        <v>1977.888487769684</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="Q4" t="n">
-        <v>1977.888487769684</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="R4" t="n">
-        <v>1828.366706384062</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="S4" t="n">
-        <v>1828.366706384062</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="T4" t="n">
-        <v>1828.366706384062</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="U4" t="n">
-        <v>1828.366706384062</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="V4" t="n">
-        <v>1828.366706384062</v>
+        <v>325.7141712379945</v>
       </c>
       <c r="W4" t="n">
-        <v>1828.366706384062</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="X4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="Y4" t="n">
-        <v>1598.309897497975</v>
+        <v>39.55776975539366</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.382227617301</v>
+        <v>896.344143044719</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.382227617301</v>
+        <v>896.344143044719</v>
       </c>
       <c r="D5" t="n">
-        <v>860.5582628445245</v>
+        <v>896.344143044719</v>
       </c>
       <c r="E5" t="n">
-        <v>465.7725429506313</v>
+        <v>896.344143044719</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6617563012057</v>
+        <v>886.2333563952934</v>
       </c>
       <c r="G5" t="n">
-        <v>39.55776975539369</v>
+        <v>545.1962429492884</v>
       </c>
       <c r="H5" t="n">
-        <v>39.55776975539369</v>
+        <v>212.3749685465976</v>
       </c>
       <c r="I5" t="n">
-        <v>39.55776975539369</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5563140281994</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6966860729821</v>
+        <v>279.6981418001764</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5820591579284</v>
+        <v>578.7242282134555</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.821225411016</v>
+        <v>971.9633944665434</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.152584098732</v>
+        <v>1350.294753154259</v>
       </c>
       <c r="O5" t="n">
-        <v>1655.299337627094</v>
+        <v>1655.299337627093</v>
       </c>
       <c r="P5" t="n">
-        <v>1883.456234083147</v>
+        <v>1883.456234083146</v>
       </c>
       <c r="Q5" t="n">
-        <v>1977.888487769684</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="R5" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="S5" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="T5" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="U5" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="V5" t="n">
-        <v>1887.250201265537</v>
+        <v>1640.909213665625</v>
       </c>
       <c r="W5" t="n">
-        <v>1887.250201265537</v>
+        <v>1278.374283523226</v>
       </c>
       <c r="X5" t="n">
-        <v>1627.42576713532</v>
+        <v>896.344143044719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.42576713532</v>
+        <v>896.344143044719</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579.8714558361119</v>
+        <v>690.496356201103</v>
       </c>
       <c r="C6" t="n">
-        <v>522.5352019949648</v>
+        <v>528.7926834420578</v>
       </c>
       <c r="D6" t="n">
-        <v>383.6965649851769</v>
+        <v>389.9540464322698</v>
       </c>
       <c r="E6" t="n">
-        <v>236.6685550420481</v>
+        <v>389.9540464322698</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6685550420481</v>
+        <v>268.224127185411</v>
       </c>
       <c r="G6" t="n">
-        <v>107.9400550653327</v>
+        <v>139.4956272086956</v>
       </c>
       <c r="H6" t="n">
-        <v>107.9400550653327</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="I6" t="n">
-        <v>39.55776975539369</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98118947094062</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="K6" t="n">
-        <v>270.4717420311293</v>
+        <v>269.0483223155823</v>
       </c>
       <c r="L6" t="n">
-        <v>636.2935872012449</v>
+        <v>634.8701674856979</v>
       </c>
       <c r="M6" t="n">
-        <v>636.2935872012449</v>
+        <v>636.2935872012442</v>
       </c>
       <c r="N6" t="n">
-        <v>1125.820987924242</v>
+        <v>1125.820987924241</v>
       </c>
       <c r="O6" t="n">
-        <v>1518.020938708393</v>
+        <v>1518.020938708392</v>
       </c>
       <c r="P6" t="n">
-        <v>1820.11685798409</v>
+        <v>1820.116857984089</v>
       </c>
       <c r="Q6" t="n">
-        <v>1977.888487769684</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="R6" t="n">
-        <v>1918.10421886463</v>
+        <v>1918.104218864629</v>
       </c>
       <c r="S6" t="n">
-        <v>1765.30473187737</v>
+        <v>1765.304731877369</v>
       </c>
       <c r="T6" t="n">
-        <v>1576.619628043355</v>
+        <v>1576.619628043354</v>
       </c>
       <c r="U6" t="n">
         <v>1358.124835641665</v>
       </c>
       <c r="V6" t="n">
-        <v>1129.729213089999</v>
+        <v>1129.729213089998</v>
       </c>
       <c r="W6" t="n">
-        <v>1129.729213089999</v>
+        <v>888.4133443233085</v>
       </c>
       <c r="X6" t="n">
-        <v>931.8122249677939</v>
+        <v>690.496356201103</v>
       </c>
       <c r="Y6" t="n">
-        <v>739.2908986173727</v>
+        <v>690.496356201103</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="C7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="D7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="E7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="F7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="G7" t="n">
-        <v>99.61500834122097</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="H7" t="n">
-        <v>99.61500834122097</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="I7" t="n">
-        <v>99.61500834122097</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J7" t="n">
-        <v>39.55776975539369</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="K7" t="n">
-        <v>73.16195750003709</v>
+        <v>73.16195750003708</v>
       </c>
       <c r="L7" t="n">
         <v>173.7690369002966</v>
@@ -4738,37 +4738,37 @@
         <v>410.1848847774987</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6485312731884</v>
+        <v>508.6485312731883</v>
       </c>
       <c r="P7" t="n">
-        <v>571.6170150013262</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="Q7" t="n">
-        <v>554.6911584559718</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="R7" t="n">
-        <v>554.6911584559718</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="S7" t="n">
-        <v>554.6911584559718</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="T7" t="n">
-        <v>554.6911584559718</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="U7" t="n">
-        <v>554.6911584559718</v>
+        <v>284.4267754904259</v>
       </c>
       <c r="V7" t="n">
-        <v>554.6911584559718</v>
+        <v>284.4267754904259</v>
       </c>
       <c r="W7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="X7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.534756973371</v>
+        <v>39.55776975539366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.9637832951018</v>
+        <v>942.6610632227039</v>
       </c>
       <c r="C8" t="n">
-        <v>841.0629940692133</v>
+        <v>942.6610632227039</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="V8" t="n">
-        <v>1262.007322813121</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>1718.233059125372</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>1336.202918646866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>942.6610632227039</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>657.9147185764022</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>496.2110458173569</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>357.3724088075689</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1677.483967148646</v>
       </c>
       <c r="V9" t="n">
-        <v>1541.233421836997</v>
+        <v>1449.08834459698</v>
       </c>
       <c r="W9" t="n">
-        <v>1299.917553070307</v>
+        <v>1207.77247583029</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1009.855487708084</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>817.3341613576631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="C10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>512.7698642964792</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U10" t="n">
-        <v>225.5796247855791</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V10" t="n">
-        <v>225.5796247855791</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W10" t="n">
-        <v>225.5796247855791</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.5796247855791</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.5796247855791</v>
+        <v>172.3146160188864</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1652.115390121949</v>
+        <v>1057.008880898172</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.115148721564</v>
+        <v>767.0086394977868</v>
       </c>
       <c r="D11" t="n">
-        <v>1081.224701215595</v>
+        <v>486.1181919918176</v>
       </c>
       <c r="E11" t="n">
-        <v>778.3724985885092</v>
+        <v>486.1181919918176</v>
       </c>
       <c r="F11" t="n">
-        <v>456.154825165487</v>
+        <v>486.1181919918176</v>
       </c>
       <c r="G11" t="n">
-        <v>131.9843558864823</v>
+        <v>161.9477227128133</v>
       </c>
       <c r="H11" t="n">
         <v>131.9843558864823</v>
@@ -5042,22 +5042,22 @@
         <v>213.2032589080894</v>
       </c>
       <c r="K11" t="n">
-        <v>453.3436309528721</v>
+        <v>543.44767122607</v>
       </c>
       <c r="L11" t="n">
-        <v>801.2290040378184</v>
+        <v>891.3330443110162</v>
       </c>
       <c r="M11" t="n">
-        <v>1194.468170290906</v>
+        <v>1284.572210564104</v>
       </c>
       <c r="N11" t="n">
         <v>1662.90356925182</v>
       </c>
       <c r="O11" t="n">
-        <v>2050.967031744817</v>
+        <v>2058.012193997852</v>
       </c>
       <c r="P11" t="n">
-        <v>2369.227968474068</v>
+        <v>2376.273130727103</v>
       </c>
       <c r="Q11" t="n">
         <v>2553.764262433803</v>
@@ -5072,19 +5072,19 @@
         <v>2327.312830999267</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.312830999267</v>
+        <v>2164.361011980068</v>
       </c>
       <c r="V11" t="n">
-        <v>2327.312830999267</v>
+        <v>1919.315255142817</v>
       </c>
       <c r="W11" t="n">
-        <v>2327.312830999267</v>
+        <v>1648.713842267226</v>
       </c>
       <c r="X11" t="n">
-        <v>2255.833750530516</v>
+        <v>1358.617219055527</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.225412373161</v>
+        <v>1057.008880898172</v>
       </c>
     </row>
     <row r="12">
@@ -5103,22 +5103,22 @@
         <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I12" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
         <v>340.8453734553806</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.7536751933081</v>
+        <v>128.783126633598</v>
       </c>
       <c r="C13" t="n">
-        <v>239.7536751933081</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D13" t="n">
-        <v>178.6152992878783</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E13" t="n">
-        <v>118.5398023160045</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5398023160045</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G13" t="n">
-        <v>118.5398023160045</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H13" t="n">
         <v>51.10067436208574</v>
@@ -5197,19 +5197,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>82.34261509731448</v>
+        <v>82.34261509731442</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0508431151559</v>
+        <v>206.0508431151558</v>
       </c>
       <c r="L13" t="n">
-        <v>396.7619627886134</v>
+        <v>396.7619627886133</v>
       </c>
       <c r="M13" t="n">
         <v>604.8595091894131</v>
       </c>
       <c r="N13" t="n">
-        <v>813.3858912122113</v>
+        <v>813.3858912122114</v>
       </c>
       <c r="O13" t="n">
         <v>1001.953577981099</v>
@@ -5221,28 +5221,28 @@
         <v>1207.359694002113</v>
       </c>
       <c r="R13" t="n">
-        <v>1149.771429883299</v>
+        <v>1207.359694002113</v>
       </c>
       <c r="S13" t="n">
-        <v>1027.995184553794</v>
+        <v>1085.583448672608</v>
       </c>
       <c r="T13" t="n">
-        <v>886.7497486362802</v>
+        <v>944.3380127550947</v>
       </c>
       <c r="U13" t="n">
-        <v>691.4930263921874</v>
+        <v>749.0812905110021</v>
       </c>
       <c r="V13" t="n">
-        <v>522.6912392174174</v>
+        <v>580.2795033362322</v>
       </c>
       <c r="W13" t="n">
-        <v>328.4683550016241</v>
+        <v>386.0566191204387</v>
       </c>
       <c r="X13" t="n">
-        <v>328.4683550016241</v>
+        <v>246.737672282622</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.7536751933081</v>
+        <v>128.783126633598</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1588.089092205491</v>
+        <v>798.8131636613427</v>
       </c>
       <c r="C14" t="n">
-        <v>1334.668708087574</v>
+        <v>514.3022103877553</v>
       </c>
       <c r="D14" t="n">
-        <v>1059.267548708403</v>
+        <v>423.8579822599725</v>
       </c>
       <c r="E14" t="n">
-        <v>761.9046342081155</v>
+        <v>126.4950677596845</v>
       </c>
       <c r="F14" t="n">
-        <v>445.1762489118911</v>
+        <v>126.4950677596845</v>
       </c>
       <c r="G14" t="n">
-        <v>126.4950677596844</v>
+        <v>126.4950677596845</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4950677596844</v>
+        <v>126.4950677596845</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>218.5833102011639</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>554.2077738122191</v>
       </c>
       <c r="L14" t="n">
-        <v>806.6090553308929</v>
+        <v>902.0931468971653</v>
       </c>
       <c r="M14" t="n">
-        <v>1295.332313150253</v>
+        <v>1390.816404716526</v>
       </c>
       <c r="N14" t="n">
-        <v>1769.147763404242</v>
+        <v>1864.631854970514</v>
       </c>
       <c r="O14" t="n">
         <v>2169.636439443348</v>
       </c>
       <c r="P14" t="n">
-        <v>2397.793335899401</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q14" t="n">
         <v>2555.033718104287</v>
@@ -5312,16 +5312,16 @@
         <v>2180.828876360462</v>
       </c>
       <c r="V14" t="n">
-        <v>2180.828876360462</v>
+        <v>1941.272407650009</v>
       </c>
       <c r="W14" t="n">
-        <v>2180.828876360462</v>
+        <v>1676.160282901215</v>
       </c>
       <c r="X14" t="n">
-        <v>2180.828876360462</v>
+        <v>1391.552947816313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1884.709826329905</v>
+        <v>1095.433897785757</v>
       </c>
     </row>
     <row r="15">
@@ -5340,28 +5340,28 @@
         <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.8576057646043</v>
+        <v>178.9429262854323</v>
       </c>
       <c r="C16" t="n">
-        <v>261.6644416198899</v>
+        <v>106.7497621407178</v>
       </c>
       <c r="D16" t="n">
-        <v>261.6644416198899</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E16" t="n">
-        <v>261.6644416198899</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F16" t="n">
-        <v>206.6065920392723</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G16" t="n">
-        <v>135.1096488007276</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H16" t="n">
-        <v>97.88091336580189</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>87.72266639038901</v>
+        <v>87.72266639038892</v>
       </c>
       <c r="K16" t="n">
-        <v>216.810945701305</v>
+        <v>216.8109457013048</v>
       </c>
       <c r="L16" t="n">
-        <v>412.902116667837</v>
+        <v>412.9021166678368</v>
       </c>
       <c r="M16" t="n">
-        <v>626.3797143617114</v>
+        <v>626.3797143617111</v>
       </c>
       <c r="N16" t="n">
-        <v>840.2861476775844</v>
+        <v>840.286147677584</v>
       </c>
       <c r="O16" t="n">
-        <v>1034.233885739547</v>
+        <v>1034.233885739546</v>
       </c>
       <c r="P16" t="n">
-        <v>1192.686461033957</v>
+        <v>1192.686461033956</v>
       </c>
       <c r="Q16" t="n">
-        <v>1250.40010434671</v>
+        <v>1250.400104346709</v>
       </c>
       <c r="R16" t="n">
-        <v>1250.40010434671</v>
+        <v>1198.301128354693</v>
       </c>
       <c r="S16" t="n">
-        <v>1134.113147144003</v>
+        <v>1082.014171151986</v>
       </c>
       <c r="T16" t="n">
-        <v>1134.113147144003</v>
+        <v>946.2580233612699</v>
       </c>
       <c r="U16" t="n">
-        <v>944.3457130267084</v>
+        <v>756.490589243975</v>
       </c>
       <c r="V16" t="n">
-        <v>781.0332139787364</v>
+        <v>593.178090196003</v>
       </c>
       <c r="W16" t="n">
-        <v>592.2996178897408</v>
+        <v>404.4444941070074</v>
       </c>
       <c r="X16" t="n">
-        <v>458.4699591787219</v>
+        <v>270.6148353959883</v>
       </c>
       <c r="Y16" t="n">
-        <v>333.8576057646043</v>
+        <v>265.0754895762068</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>991.4016840570268</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1927.439983488863</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.60146441775</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104287</v>
@@ -5555,10 +5555,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
         <v>706.6672186254962</v>
@@ -5616,22 +5616,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
         <v>1267.641586535707</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54268635500836</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>74.031305562744</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F19" t="n">
-        <v>89.05279011354052</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G19" t="n">
-        <v>87.9401779889228</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
         <v>628.266068145054</v>
@@ -5704,19 +5704,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478546</v>
       </c>
       <c r="E20" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614937</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5753,25 +5753,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>991.4016840570268</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.640850310115</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.97220899783</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5789,13 +5789,13 @@
         <v>2222.809732105717</v>
       </c>
       <c r="W20" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I21" t="n">
         <v>51.10067436208574</v>
@@ -5835,7 +5835,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
         <v>52.21328648670347</v>
@@ -5908,52 +5908,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5984,31 +5984,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687085</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421796</v>
       </c>
       <c r="N23" t="n">
-        <v>1598.504434506798</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O23" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P23" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>99.07598961781238</v>
       </c>
       <c r="L25" t="n">
-        <v>231.5307021686421</v>
+        <v>199.6830690180719</v>
       </c>
       <c r="M25" t="n">
-        <v>349.5242082962438</v>
+        <v>317.6765751456736</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>436.098916895274</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.378469185809</v>
+        <v>1637.37846918581</v>
       </c>
       <c r="C26" t="n">
         <v>1385.545025310955</v>
       </c>
       <c r="D26" t="n">
-        <v>1142.821375330516</v>
+        <v>1142.821375330517</v>
       </c>
       <c r="E26" t="n">
-        <v>878.1359702289614</v>
+        <v>878.1359702289617</v>
       </c>
       <c r="F26" t="n">
-        <v>594.0850943314698</v>
+        <v>594.0850943314701</v>
       </c>
       <c r="G26" t="n">
-        <v>308.0814225779959</v>
+        <v>308.0814225779964</v>
       </c>
       <c r="H26" t="n">
         <v>105.3604629676437</v>
       </c>
       <c r="I26" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J26" t="n">
         <v>262.1534417695541</v>
       </c>
       <c r="K26" t="n">
-        <v>629.8051323423074</v>
+        <v>581.3846707046373</v>
       </c>
       <c r="L26" t="n">
-        <v>1105.201823955224</v>
+        <v>1056.781362317554</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.531847098612</v>
+        <v>1577.531847098613</v>
       </c>
       <c r="N26" t="n">
-        <v>2083.374524314298</v>
+        <v>2083.374524314299</v>
       </c>
       <c r="O26" t="n">
-        <v>2515.890427315102</v>
+        <v>2515.890427315103</v>
       </c>
       <c r="P26" t="n">
-        <v>2871.558642299126</v>
+        <v>2871.558642299127</v>
       </c>
       <c r="Q26" t="n">
-        <v>3093.502214513634</v>
+        <v>3093.502214513635</v>
       </c>
       <c r="R26" t="n">
         <v>3132.178948438891</v>
@@ -6254,10 +6254,10 @@
         <v>3075.050287861583</v>
       </c>
       <c r="T26" t="n">
-        <v>2980.791656384932</v>
+        <v>2980.791656384933</v>
       </c>
       <c r="U26" t="n">
-        <v>2856.006634891264</v>
+        <v>2856.006634891265</v>
       </c>
       <c r="V26" t="n">
         <v>2649.127675579544</v>
@@ -6266,10 +6266,10 @@
         <v>2416.693060229483</v>
       </c>
       <c r="X26" t="n">
-        <v>2164.763234543314</v>
+        <v>2164.763234543315</v>
       </c>
       <c r="Y26" t="n">
-        <v>1901.32169391149</v>
+        <v>1901.321693911491</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>131.0258642787168</v>
       </c>
       <c r="I27" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J27" t="n">
         <v>122.897725501884</v>
@@ -6327,16 +6327,16 @@
         <v>2566.576622710979</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.504971266029</v>
+        <v>2506.792353805925</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.70548427877</v>
+        <v>2353.992866818665</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.020380444755</v>
+        <v>2165.307762984651</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.525588043065</v>
+        <v>1946.812970582961</v>
       </c>
       <c r="V27" t="n">
         <v>1733.129965491399</v>
@@ -6376,31 +6376,31 @@
         <v>106.0186390021492</v>
       </c>
       <c r="H28" t="n">
-        <v>76.74630857376114</v>
+        <v>76.74630857376116</v>
       </c>
       <c r="I28" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J28" t="n">
-        <v>62.64357896877781</v>
+        <v>131.2927979587791</v>
       </c>
       <c r="K28" t="n">
-        <v>223.7590852413918</v>
+        <v>164.8969857034226</v>
       </c>
       <c r="L28" t="n">
-        <v>451.8774831696219</v>
+        <v>367.6650129781456</v>
       </c>
       <c r="M28" t="n">
-        <v>569.8709892972237</v>
+        <v>485.6585191057474</v>
       </c>
       <c r="N28" t="n">
-        <v>769.3626276368377</v>
+        <v>731.5921793833184</v>
       </c>
       <c r="O28" t="n">
-        <v>867.8262741325274</v>
+        <v>957.5671444069786</v>
       </c>
       <c r="P28" t="n">
-        <v>1058.306076388636</v>
+        <v>1148.046946663087</v>
       </c>
       <c r="Q28" t="n">
         <v>1148.046946663087</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1593.464164171427</v>
+        <v>1593.464164171428</v>
       </c>
       <c r="C29" t="n">
-        <v>1336.141432169774</v>
+        <v>1336.141432169776</v>
       </c>
       <c r="D29" t="n">
-        <v>1087.928494062538</v>
+        <v>1087.92849406254</v>
       </c>
       <c r="E29" t="n">
-        <v>817.753800834185</v>
+        <v>817.7538008341876</v>
       </c>
       <c r="F29" t="n">
-        <v>528.2136368098954</v>
+        <v>610.5529587118634</v>
       </c>
       <c r="G29" t="n">
-        <v>270.8538267059283</v>
+        <v>319.0599988315918</v>
       </c>
       <c r="H29" t="n">
-        <v>62.64357896877781</v>
+        <v>110.8497510944414</v>
       </c>
       <c r="I29" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7733904764794</v>
+        <v>256.77339047648</v>
       </c>
       <c r="K29" t="n">
-        <v>619.0450297561582</v>
+        <v>619.0450297561588</v>
       </c>
       <c r="L29" t="n">
         <v>1089.061670076001</v>
@@ -6479,7 +6479,7 @@
         <v>2532.030581194327</v>
       </c>
       <c r="P29" t="n">
-        <v>2882.318744885275</v>
+        <v>2882.318744885276</v>
       </c>
       <c r="Q29" t="n">
         <v>3098.882265806709</v>
@@ -6488,25 +6488,25 @@
         <v>3132.178948438891</v>
       </c>
       <c r="S29" t="n">
-        <v>3069.560999734785</v>
+        <v>3069.560999734786</v>
       </c>
       <c r="T29" t="n">
-        <v>2969.813080131336</v>
+        <v>2969.813080131337</v>
       </c>
       <c r="U29" t="n">
         <v>2839.538770510871</v>
       </c>
       <c r="V29" t="n">
-        <v>2627.170523072352</v>
+        <v>2627.170523072353</v>
       </c>
       <c r="W29" t="n">
-        <v>2389.246619595493</v>
+        <v>2389.246619595495</v>
       </c>
       <c r="X29" t="n">
-        <v>2131.827505782527</v>
+        <v>2131.827505782529</v>
       </c>
       <c r="Y29" t="n">
-        <v>1862.896677023905</v>
+        <v>1862.896677023907</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.9563394708219</v>
+        <v>927.2437220107174</v>
       </c>
       <c r="C30" t="n">
-        <v>780.2526667117767</v>
+        <v>765.5400492516721</v>
       </c>
       <c r="D30" t="n">
-        <v>641.4140297019887</v>
+        <v>626.7014122418842</v>
       </c>
       <c r="E30" t="n">
-        <v>494.3860197588599</v>
+        <v>479.6734022987554</v>
       </c>
       <c r="F30" t="n">
         <v>359.6922217087342</v>
@@ -6537,7 +6537,7 @@
         <v>131.0258642787168</v>
       </c>
       <c r="I30" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J30" t="n">
         <v>122.897725501884</v>
@@ -6582,10 +6582,10 @@
         <v>1477.101479264605</v>
       </c>
       <c r="X30" t="n">
-        <v>1293.897108602504</v>
+        <v>1279.184491142399</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.375782252083</v>
+        <v>1086.663164791978</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.0393624836546</v>
+        <v>290.0393624836537</v>
       </c>
       <c r="C31" t="n">
-        <v>245.0344196108752</v>
+        <v>245.0344196108744</v>
       </c>
       <c r="D31" t="n">
-        <v>216.5735531041782</v>
+        <v>216.5735531041775</v>
       </c>
       <c r="E31" t="n">
-        <v>189.1755655310373</v>
+        <v>189.1755655310368</v>
       </c>
       <c r="F31" t="n">
-        <v>161.3059372223547</v>
+        <v>161.3059372223543</v>
       </c>
       <c r="G31" t="n">
-        <v>116.9972152557449</v>
+        <v>116.9972152557447</v>
       </c>
       <c r="H31" t="n">
-        <v>82.23559670055901</v>
+        <v>82.23559670055892</v>
       </c>
       <c r="I31" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="J31" t="n">
-        <v>125.9127466657045</v>
+        <v>62.64357896877783</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6482016452439</v>
+        <v>218.3790339483174</v>
       </c>
       <c r="L31" t="n">
-        <v>504.3865482803994</v>
+        <v>441.117380583473</v>
       </c>
       <c r="M31" t="n">
-        <v>622.3800544080011</v>
+        <v>681.2421539459708</v>
       </c>
       <c r="N31" t="n">
-        <v>862.9336633924975</v>
+        <v>921.7957629304674</v>
       </c>
       <c r="O31" t="n">
-        <v>1083.528577123083</v>
+        <v>1142.390676661053</v>
       </c>
       <c r="P31" t="n">
-        <v>1235.875556691853</v>
+        <v>1205.359160389191</v>
       </c>
       <c r="Q31" t="n">
-        <v>1235.875556691853</v>
+        <v>1235.875556691851</v>
       </c>
       <c r="R31" t="n">
-        <v>1210.964801971771</v>
+        <v>1210.964801971769</v>
       </c>
       <c r="S31" t="n">
-        <v>1121.866066040999</v>
+        <v>1121.866066040997</v>
       </c>
       <c r="T31" t="n">
-        <v>1013.298139522218</v>
+        <v>1013.298139522217</v>
       </c>
       <c r="U31" t="n">
-        <v>850.7189266768585</v>
+        <v>850.7189266768569</v>
       </c>
       <c r="V31" t="n">
-        <v>714.5946489008214</v>
+        <v>714.5946489008199</v>
       </c>
       <c r="W31" t="n">
-        <v>553.0492740837608</v>
+        <v>553.0492740837594</v>
       </c>
       <c r="X31" t="n">
-        <v>446.4078366446768</v>
+        <v>446.4078366446756</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.9837045024942</v>
+        <v>348.9837045024931</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>643.1323473443254</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.425889631154</v>
+        <v>991.0177204292715</v>
       </c>
       <c r="M32" t="n">
         <v>1519.665055884242</v>
@@ -6713,13 +6713,13 @@
         <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2415.449142602259</v>
+        <v>2368.875558003091</v>
       </c>
       <c r="P32" t="n">
-        <v>2779.014208260194</v>
+        <v>2732.440623661026</v>
       </c>
       <c r="Q32" t="n">
-        <v>3008.854631148613</v>
+        <v>2962.281046549445</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148613</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
-        <v>491.9195334130543</v>
+        <v>477.2069159529498</v>
       </c>
       <c r="F33" t="n">
-        <v>357.2257353629286</v>
+        <v>342.5131179028242</v>
       </c>
       <c r="G33" t="n">
-        <v>228.4972353862132</v>
+        <v>213.7846179261088</v>
       </c>
       <c r="H33" t="n">
-        <v>128.5593779329113</v>
+        <v>113.8467604728068</v>
       </c>
       <c r="I33" t="n">
         <v>60.17709262297227</v>
@@ -6801,28 +6801,28 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6856,19 +6856,19 @@
         <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868853</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315287</v>
+        <v>149.7563237897617</v>
       </c>
       <c r="L34" t="n">
-        <v>385.7715723919036</v>
+        <v>250.3634031900212</v>
       </c>
       <c r="M34" t="n">
-        <v>503.7650785195053</v>
+        <v>368.3569093176229</v>
       </c>
       <c r="N34" t="n">
-        <v>622.1874202691057</v>
+        <v>486.7792510672233</v>
       </c>
       <c r="O34" t="n">
         <v>720.6510667647954</v>
@@ -6935,22 +6935,22 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1384.640850310116</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.972208997831</v>
+        <v>1927.439983488864</v>
       </c>
       <c r="O35" t="n">
-        <v>2067.976793470665</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
         <v>2460.601464417751</v>
@@ -7008,7 +7008,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720248</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208575</v>
@@ -7075,28 +7075,28 @@
         <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
-        <v>58.70132471082061</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E37" t="n">
-        <v>74.18506434652159</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F37" t="n">
-        <v>74.18506434652159</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
         <v>230.4180900440244</v>
@@ -7178,22 +7178,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>826.9339095659946</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.173075819082</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
         <v>52.21328648670345</v>
@@ -7324,58 +7324,58 @@
         <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>92.97150701692779</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7421,16 +7421,16 @@
         <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1598.504434506798</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>1903.509018979632</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,7 +7512,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2357.162579672078</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>107.8392327839468</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>326.439818311808</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>444.8621600614084</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>543.3258065570981</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
@@ -7634,64 +7634,64 @@
         <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575744</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K44" t="n">
-        <v>692.1751396617389</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M44" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.611879242172</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480715</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
@@ -7816,40 +7816,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W46" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>462.2889764250539</v>
+        <v>462.288976425053</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8058,22 +8058,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>163.9641665429475</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>601.1872630101293</v>
+        <v>601.1872630101291</v>
       </c>
       <c r="O3" t="n">
-        <v>267.8107513707699</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>493.6067640957198</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8228,7 +8228,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>372.9616185259407</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>104.4933693591383</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8301,10 +8301,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>116.9217002541109</v>
       </c>
       <c r="N6" t="n">
-        <v>601.1872630101293</v>
+        <v>601.1872630101291</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9255,7 +9255,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.021015059748</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>299.0889220286996</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>299.8236806008148</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.995496688792</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>238.4788795645244</v>
+        <v>208.8151464064567</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>161.3223008290066</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>242.5952992688787</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.8953987468356</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>216.4313673155186</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.70563290339668</v>
+        <v>90.70563290339665</v>
       </c>
       <c r="C13" t="n">
-        <v>76.90562774879716</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.52699214637552</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.47474200215497</v>
       </c>
       <c r="F13" t="n">
-        <v>59.94166633034131</v>
+        <v>59.94166633034128</v>
       </c>
       <c r="G13" t="n">
-        <v>76.21636905168914</v>
+        <v>76.21636905168911</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.76473667437953</v>
       </c>
       <c r="I13" t="n">
-        <v>51.74683185920891</v>
+        <v>51.74683185920888</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.01238147762619</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.9257573694387</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.9730921152735</v>
+        <v>12.02562493297255</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>30.77966346411328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>183.1073619388745</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>313.5611014432621</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.4943693406847</v>
       </c>
       <c r="H14" t="n">
-        <v>233.0444843189945</v>
+        <v>233.0444843189946</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>237.1609040233488</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4610035013057</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>281.7612617340523</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.27123765786675</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.09259690084562</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.04034675662507</v>
+        <v>54.04034675662515</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.50727108481146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.7819738061593</v>
       </c>
       <c r="H16" t="n">
-        <v>24.47389334827316</v>
+        <v>61.33034142884972</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.31243661367907</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.57798623209629</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>134.3985863128087</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.8822775183929</v>
       </c>
     </row>
     <row r="17">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.538708137538961e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>81.5159286829475</v>
       </c>
       <c r="G29" t="n">
-        <v>33.79181827854126</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.72411040440709</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>931980.2066915806</v>
+        <v>931980.2066915805</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809812.9817688863</v>
+        <v>809812.9817688862</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821330.7207855665</v>
+        <v>821330.7207855667</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>422193.2332717999</v>
       </c>
       <c r="C2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332717998</v>
       </c>
       <c r="D2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="E2" t="n">
-        <v>365811.0118725787</v>
+        <v>365811.0118725786</v>
       </c>
       <c r="F2" t="n">
-        <v>371089.9755885561</v>
+        <v>371089.9755885563</v>
       </c>
       <c r="G2" t="n">
         <v>422193.2332718006</v>
       </c>
       <c r="H2" t="n">
-        <v>422193.2332718006</v>
+        <v>422193.2332718007</v>
       </c>
       <c r="I2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718005</v>
       </c>
       <c r="J2" t="n">
         <v>422193.2332718</v>
       </c>
       <c r="K2" t="n">
-        <v>418624.4659140607</v>
+        <v>418624.4659140604</v>
       </c>
       <c r="L2" t="n">
         <v>422193.2332717998</v>
       </c>
       <c r="M2" t="n">
-        <v>422193.2332718006</v>
+        <v>422193.2332718004</v>
       </c>
       <c r="N2" t="n">
         <v>422193.2332718005</v>
       </c>
       <c r="O2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="P2" t="n">
-        <v>422193.2332718005</v>
+        <v>422193.2332718006</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165708.98092171</v>
+        <v>165708.9809217099</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9577.058169969696</v>
+        <v>9577.058169969767</v>
       </c>
       <c r="E3" t="n">
-        <v>106686.5808190486</v>
+        <v>106686.5808190487</v>
       </c>
       <c r="F3" t="n">
-        <v>4347.516196423931</v>
+        <v>4347.51619642384</v>
       </c>
       <c r="G3" t="n">
-        <v>55744.39024223013</v>
+        <v>55744.39024223021</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66473.19991252218</v>
+        <v>66473.19991252213</v>
       </c>
       <c r="M3" t="n">
         <v>23482.50932456565</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42947.54287687773</v>
+        <v>42947.54287687776</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204916.3592354139</v>
+        <v>204916.359235414</v>
       </c>
       <c r="C4" t="n">
-        <v>204916.3592354139</v>
+        <v>204916.359235414</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
-        <v>128972.0318300606</v>
+        <v>128972.0318300607</v>
       </c>
       <c r="F4" t="n">
-        <v>134463.7367066291</v>
+        <v>134463.736706629</v>
       </c>
       <c r="G4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="H4" t="n">
         <v>187302.9854962236</v>
@@ -26439,10 +26439,10 @@
         <v>187302.9854962236</v>
       </c>
       <c r="J4" t="n">
-        <v>188045.81594573</v>
+        <v>188045.8159457301</v>
       </c>
       <c r="K4" t="n">
-        <v>184369.6754708958</v>
+        <v>184369.6754708959</v>
       </c>
       <c r="L4" t="n">
         <v>187880.6814873886</v>
@@ -26451,13 +26451,13 @@
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
+        <v>187302.9854962235</v>
+      </c>
+      <c r="O4" t="n">
+        <v>187302.9854962235</v>
+      </c>
+      <c r="P4" t="n">
         <v>187302.9854962236</v>
-      </c>
-      <c r="O4" t="n">
-        <v>187302.9854962236</v>
-      </c>
-      <c r="P4" t="n">
-        <v>187302.9854962235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63691.5050140992</v>
+        <v>63691.50501409918</v>
       </c>
       <c r="C5" t="n">
-        <v>63691.5050140992</v>
+        <v>63691.50501409918</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46487.98378965736</v>
+        <v>46487.98378965737</v>
       </c>
       <c r="F5" t="n">
-        <v>46944.84796355382</v>
+        <v>46944.84796355381</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26491,10 +26491,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58437.14934690544</v>
+        <v>58437.14934690545</v>
       </c>
       <c r="K5" t="n">
-        <v>57980.28517300898</v>
+        <v>57980.28517300901</v>
       </c>
       <c r="L5" t="n">
         <v>57233.2059254115</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264635</v>
+        <v>52802.81689264637</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12123.61189942319</v>
+        <v>-12123.61189942309</v>
       </c>
       <c r="C6" t="n">
-        <v>153585.3690222868</v>
+        <v>153585.3690222867</v>
       </c>
       <c r="D6" t="n">
         <v>150070.7072508604</v>
       </c>
       <c r="E6" t="n">
-        <v>83664.4154338121</v>
+        <v>83408.13260927</v>
       </c>
       <c r="F6" t="n">
-        <v>185333.8747219493</v>
+        <v>185101.5871870258</v>
       </c>
       <c r="G6" t="n">
         <v>126343.0406407005</v>
       </c>
       <c r="H6" t="n">
-        <v>182087.4308829307</v>
+        <v>182087.4308829308</v>
       </c>
       <c r="I6" t="n">
-        <v>182087.4308829305</v>
+        <v>182087.4308829306</v>
       </c>
       <c r="J6" t="n">
-        <v>-34364.58543263274</v>
+        <v>-34364.58543263284</v>
       </c>
       <c r="K6" t="n">
-        <v>176274.5052701559</v>
+        <v>176258.2836003476</v>
       </c>
       <c r="L6" t="n">
         <v>110606.1459464776</v>
       </c>
       <c r="M6" t="n">
-        <v>158604.921558365</v>
+        <v>158604.9215583648</v>
       </c>
       <c r="N6" t="n">
         <v>182087.4308829306</v>
       </c>
       <c r="O6" t="n">
-        <v>139139.8880060528</v>
+        <v>139139.8880060529</v>
       </c>
       <c r="P6" t="n">
         <v>182087.4308829307</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26710,7 +26710,7 @@
         <v>128.7993116444148</v>
       </c>
       <c r="K2" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="C4" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26802,19 +26802,19 @@
         <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.0447371097226</v>
+        <v>783.0447371097229</v>
       </c>
       <c r="K4" t="n">
-        <v>783.0447371097226</v>
+        <v>783.0447371097229</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871534</v>
@@ -26826,10 +26826,10 @@
         <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260715</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
-        <v>5.434395245529913</v>
+        <v>5.434395245529799</v>
       </c>
       <c r="G2" t="n">
-        <v>69.68048780278767</v>
+        <v>69.68048780278775</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.68442859609716</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.09149989065271</v>
+        <v>83.09149989065267</v>
       </c>
       <c r="M2" t="n">
         <v>29.35313665570706</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609716</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.83107932256928</v>
+        <v>30.83107932256951</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K2" t="n">
-        <v>5.434395245529913</v>
+        <v>5.434395245529799</v>
       </c>
       <c r="L2" t="n">
-        <v>69.68048780278767</v>
+        <v>69.68048780278775</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609716</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.83107932256928</v>
+        <v>30.83107932256951</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.7168837014084</v>
+        <v>281.7911138108246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>132.0902829523132</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>123.1276056226469</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27582,7 +27582,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27594,13 +27594,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.183698666351347</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>74.31620436880894</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27673,13 +27673,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>120.9836492848063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>103.3237447287193</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>12.8342400152342</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.39536995294705</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>40.87452179009296</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>351.4826397468911</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>165.1163179816817</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>194.0744660745362</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>169.5644485789556</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>38.93235352442619</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>170.146662972332</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>91.01418209413934</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>83.89785658602341</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="P11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.01418209413934</v>
+        <v>83.89785658602358</v>
       </c>
       <c r="R11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01418209413934</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="C14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="D14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="E14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="F14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="G14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="H14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="I14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="L14" t="n">
-        <v>96.44857733966927</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="N14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="O14" t="n">
-        <v>96.44857733966927</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>63.44255405893796</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.44255405893784</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="T14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="U14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="V14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="W14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="X14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="C16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="D16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="E16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="F16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="G16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="H16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="I16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="J16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="K16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="L16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="M16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="N16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="O16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="P16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="R16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="T16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="U16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="V16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="W16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="X16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.44857733966927</v>
+        <v>96.44857733966919</v>
       </c>
     </row>
     <row r="17">
@@ -28585,28 +28585,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>116.9787331327008</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L17" t="n">
-        <v>116.9787331327011</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28725,19 +28725,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>159.063286932391</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28825,16 +28825,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.58157162934947</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,10 +28843,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I21" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28980,7 +28980,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>59.456666199969</v>
+        <v>105.018432398995</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29062,28 +29062,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>40.58157162934913</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>31.04547578379038</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29299,13 +29299,13 @@
         <v>128.7993116444148</v>
       </c>
       <c r="K26" t="n">
-        <v>128.7993116444148</v>
+        <v>79.8897544346469</v>
       </c>
       <c r="L26" t="n">
         <v>128.7993116444148</v>
       </c>
       <c r="M26" t="n">
-        <v>79.88975443464602</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="N26" t="n">
         <v>128.7993116444148</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>128.7993116444148</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>103.1928766408723</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>128.7993116444148</v>
       </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
         <v>128.7993116444148</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>81.88817837375119</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>128.7993116444148</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.7993116444148</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>128.7993116444148</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="C29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="D29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="E29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="F29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="G29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="H29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="I29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="J29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="K29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="L29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="M29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="N29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="O29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="P29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="R29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="S29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="T29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="U29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="V29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="W29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="X29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="Y29" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
     </row>
     <row r="30">
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="C31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="D31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="E31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="F31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="G31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="H31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="I31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="J31" t="n">
-        <v>123.3649163988849</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="L31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>123.364916398885</v>
       </c>
       <c r="N31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="P31" t="n">
-        <v>90.28130892993123</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>68.97661066280726</v>
       </c>
       <c r="R31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="S31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="T31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="U31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="V31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="W31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="X31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.3649163988849</v>
+        <v>123.364916398885</v>
       </c>
     </row>
     <row r="32">
@@ -29776,16 +29776,16 @@
         <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
-        <v>77.81815591473213</v>
+        <v>30.77413106708764</v>
       </c>
       <c r="P32" t="n">
         <v>136.7759284867499</v>
@@ -29794,7 +29794,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29928,22 +29928,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>56.54044790115756</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>115.9971141011266</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>136.7759284867499</v>
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9787331327019</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>116.9787331327018</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>14.56549128550328</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>159.2185988351966</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>116.9787331327012</v>
+        <v>40.58157162934953</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30396,7 +30396,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>37.21161982508798</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9787331327011</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>23.31756564084426</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30718,28 +30718,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>116.9787331326999</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>275.1326619278948</v>
+        <v>275.1326619278939</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34778,22 +34778,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>51.96799737628078</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9513027596589</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>302.0465519326052</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34948,7 +34948,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>186.0068217458203</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.437797692471651</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35021,10 +35021,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.437797692470998</v>
       </c>
       <c r="N6" t="n">
-        <v>494.472121942421</v>
+        <v>494.4721219424208</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35410,7 +35410,7 @@
         <v>163.7399843899026</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>333.5802144626068</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35419,19 +35419,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>473.1670696574886</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>391.9832954474718</v>
+        <v>399.0996209555878</v>
       </c>
       <c r="P11" t="n">
         <v>321.4756936659103</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.4002969290252</v>
+        <v>179.2839714209094</v>
       </c>
       <c r="R11" t="n">
-        <v>1.282278455034159</v>
+        <v>1.282278455034188</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.55751589417034</v>
+        <v>31.55751589417037</v>
       </c>
       <c r="K13" t="n">
-        <v>124.9578060786276</v>
+        <v>124.9578060786277</v>
       </c>
       <c r="L13" t="n">
         <v>192.637494619654</v>
@@ -35583,10 +35583,10 @@
         <v>190.4724108776643</v>
       </c>
       <c r="P13" t="n">
-        <v>154.6187111124603</v>
+        <v>154.6187111124604</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.86221416129149</v>
+        <v>52.86221416129152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>169.1743796354325</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>339.0146097081366</v>
       </c>
       <c r="L14" t="n">
-        <v>447.8479440921402</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>493.6598563831924</v>
       </c>
       <c r="N14" t="n">
-        <v>478.6014649030185</v>
+        <v>478.6014649030184</v>
       </c>
       <c r="O14" t="n">
-        <v>404.5340162011177</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>293.9040656307089</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.8286688938237</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.99191113970027</v>
+        <v>36.99191113970019</v>
       </c>
       <c r="K16" t="n">
-        <v>130.3922013241576</v>
+        <v>130.3922013241575</v>
       </c>
       <c r="L16" t="n">
-        <v>198.0718898651839</v>
+        <v>198.0718898651838</v>
       </c>
       <c r="M16" t="n">
-        <v>215.6339370645195</v>
+        <v>215.6339370645194</v>
       </c>
       <c r="N16" t="n">
-        <v>216.0671043594676</v>
+        <v>216.0671043594675</v>
       </c>
       <c r="O16" t="n">
-        <v>195.9068061231942</v>
+        <v>195.9068061231941</v>
       </c>
       <c r="P16" t="n">
-        <v>160.0531063579903</v>
+        <v>160.0531063579902</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.29660940682142</v>
+        <v>58.29660940682133</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>468.378099885172</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
@@ -36021,19 +36021,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8.574362836096604</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F19" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926987</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
@@ -36139,10 +36139,10 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.56176619902597</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36291,7 +36291,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36358,28 +36358,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818201</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>499.1316206960502</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
         <v>119.1853597248502</v>
@@ -36528,7 +36528,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>130.5037045673153</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36595,13 +36595,13 @@
         <v>201.525113940178</v>
       </c>
       <c r="K26" t="n">
-        <v>371.3653440128822</v>
+        <v>322.4557868031143</v>
       </c>
       <c r="L26" t="n">
         <v>480.1986783968857</v>
       </c>
       <c r="M26" t="n">
-        <v>477.1010334781692</v>
+        <v>526.0105906879379</v>
       </c>
       <c r="N26" t="n">
         <v>510.952199207764</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.34264544444576</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7429356289031</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.4226241699294</v>
+        <v>204.8161891663869</v>
       </c>
       <c r="M28" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>201.5067053935495</v>
+        <v>248.4178386642131</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352493</v>
+        <v>228.2575404279397</v>
       </c>
       <c r="P28" t="n">
         <v>192.4038406627358</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.6473437115669</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.0907186946482</v>
+        <v>196.0907186946483</v>
       </c>
       <c r="K29" t="n">
-        <v>365.9309487673523</v>
+        <v>365.9309487673524</v>
       </c>
       <c r="L29" t="n">
-        <v>474.7642831513558</v>
+        <v>474.7642831513559</v>
       </c>
       <c r="M29" t="n">
-        <v>520.576195442408</v>
+        <v>520.5761954424081</v>
       </c>
       <c r="N29" t="n">
-        <v>505.5178039622341</v>
+        <v>505.5178039622342</v>
       </c>
       <c r="O29" t="n">
-        <v>431.4503552603333</v>
+        <v>431.4503552603334</v>
       </c>
       <c r="P29" t="n">
-        <v>353.8264279706558</v>
+        <v>353.8264279706559</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.7510312337707</v>
+        <v>218.7510312337708</v>
       </c>
       <c r="R29" t="n">
-        <v>33.63301275977967</v>
+        <v>33.6330127597798</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.90825019891586</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>157.3085403833732</v>
+        <v>157.3085403833733</v>
       </c>
       <c r="L31" t="n">
-        <v>224.9882289243995</v>
+        <v>224.9882289243996</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>242.5502761237352</v>
       </c>
       <c r="N31" t="n">
-        <v>242.9834434186832</v>
+        <v>242.9834434186834</v>
       </c>
       <c r="O31" t="n">
-        <v>222.8231451824098</v>
+        <v>222.8231451824099</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8858379482522</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>30.82464272995941</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392208</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>385.9035947761806</v>
+        <v>338.8595699285361</v>
       </c>
       <c r="P32" t="n">
         <v>367.2374400585208</v>
@@ -37090,7 +37090,7 @@
         <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>47.04402484764469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678088</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>90.48407188564586</v>
       </c>
       <c r="L34" t="n">
-        <v>217.6204266266413</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,7 +37239,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>236.2341572702748</v>
       </c>
       <c r="P34" t="n">
         <v>200.3804575050709</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>514.1900121762251</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960511</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.677424594681677</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>147.1850787245406</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37546,7 +37546,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851721</v>
+        <v>391.9809383818205</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>100.816148843409</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>514.1900121762243</v>
+        <v>514.1900121762238</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37798,7 +37798,7 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.161566448637</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>86.92209465916527</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38029,13 +38029,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3648479675857</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
